--- a/Mini Project 1/pd_cumulative_confirmed_data.xlsx
+++ b/Mini Project 1/pd_cumulative_confirmed_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,10 +451,8 @@
           <t>검역</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>5,738</t>
-        </is>
+      <c r="B2" t="n">
+        <v>5761</v>
       </c>
     </row>
     <row r="3">
@@ -463,10 +461,8 @@
           <t>제주</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2,494</t>
-        </is>
+      <c r="B3" t="n">
+        <v>2524</v>
       </c>
     </row>
     <row r="4">
@@ -475,10 +471,8 @@
           <t>서울</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>76,245</t>
-        </is>
+      <c r="B4" t="n">
+        <v>76814</v>
       </c>
     </row>
     <row r="5">
@@ -487,10 +481,8 @@
           <t>인천</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>11,305</t>
-        </is>
+      <c r="B5" t="n">
+        <v>11406</v>
       </c>
     </row>
     <row r="6">
@@ -499,190 +491,138 @@
           <t>광주</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>3,920</t>
-        </is>
+      <c r="B6" t="n">
+        <v>3948</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>광주</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>3,920</t>
-        </is>
+          <t>경북</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>6866</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>경북</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>6,802</t>
-        </is>
+          <t>부산</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>부산</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>10,999</t>
-        </is>
+          <t>대구</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>13287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>대구</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>13,192</t>
-        </is>
+          <t>강원</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5268</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>강원</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>5,242</t>
-        </is>
+          <t>경기</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>68671</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>경기</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>68,158</t>
-        </is>
+          <t>전남</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>전남</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2,479</t>
-        </is>
+          <t>충북</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>4991</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>충북</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>4,953</t>
-        </is>
+          <t>충남</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>6639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>충남</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>6,547</t>
-        </is>
+          <t>대전</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>5463</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>충남</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>6,547</t>
-        </is>
+          <t>세종</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>954</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>대전</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>5,413</t>
-        </is>
+          <t>전북</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3441</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>세종</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>944</t>
-        </is>
+          <t>경남</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9683</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>전북</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>3,396</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>경남</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>9,615</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
           <t>울산</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3,997</t>
-        </is>
+      <c r="B19" t="n">
+        <v>4037</v>
       </c>
     </row>
   </sheetData>
